--- a/target/classes/excel/dir_template.xlsx
+++ b/target/classes/excel/dir_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6DB7A9-EF79-4315-A1A1-176D4C830F86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05093C16-E800-4555-92D7-D7412C3E6985}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="3540" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="F12")</t>
+jx:area(lastCell="D3")</t>
         </r>
       </text>
     </comment>
@@ -129,7 +129,7 @@
           </rPr>
           <t xml:space="preserve">
 jx:each(items="s1" var="items" lastCell="D3" direction="RIGHT")
-jx:each(items="items" var="obj" lastCell="D3" direction="DOWN")</t>
+jx:each(items="items" var="s1_table" lastCell="D3" direction="DOWN")</t>
         </r>
       </text>
     </comment>
@@ -143,13 +143,13 @@
     <t>Colonna per Colonna Demo</t>
   </si>
   <si>
-    <t>${obj}</t>
-  </si>
-  <si>
     <t>${s1_col1}</t>
   </si>
   <si>
     <t>${s1_col3}</t>
+  </si>
+  <si>
+    <t>${s1_table}</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,14 +565,14 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>

--- a/target/classes/excel/dir_template.xlsx
+++ b/target/classes/excel/dir_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05093C16-E800-4555-92D7-D7412C3E6985}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550F694D-B08B-4AC8-85A1-4C5A43689F59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +57,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="D3")</t>
+jx:area(lastCell="D9")</t>
         </r>
       </text>
     </comment>
@@ -130,6 +131,104 @@
           <t xml:space="preserve">
 jx:each(items="s1" var="items" lastCell="D3" direction="RIGHT")
 jx:each(items="items" var="s1_table" lastCell="D3" direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{E034FFA7-3900-48F1-8431-673BED12065A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="s2" var="items" lastCell="D6" direction="RIGHT")
+jx:each(items="items" var="s2_table" lastCell="D6" direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{BE234E98-F222-4A14-87EE-26DB3034E26E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="s2_col1" var="s2_col1" lastCell="A7" direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{CFF5ADEA-E5B8-4668-89CA-BAC84318A026}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(lastCell="B7" direction="DOWN" items="s3_col4" var="s3_col4")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{47969E68-3818-4913-8E42-87F3066E70A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="s3" var="items" lastCell="D9" direction="RIGHT")
+jx:each(items="items" var="s3_table" direction="DOWN" lastCell="D9")</t>
         </r>
       </text>
     </comment>
@@ -138,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -150,6 +249,30 @@
   </si>
   <si>
     <t>${s1_table}</t>
+  </si>
+  <si>
+    <t>${s2_col1}</t>
+  </si>
+  <si>
+    <t>${s3_table}</t>
+  </si>
+  <si>
+    <t>${s2_table}</t>
+  </si>
+  <si>
+    <t>Prima tabella:</t>
+  </si>
+  <si>
+    <t>Seconda tabella:</t>
+  </si>
+  <si>
+    <t>Terza  tabella:</t>
+  </si>
+  <si>
+    <t>${s3_col4}</t>
+  </si>
+  <si>
+    <t>Totale:</t>
   </si>
 </sst>
 </file>
@@ -197,18 +320,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -217,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -226,6 +364,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,10 +683,13 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -559,12 +702,14 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -578,18 +723,22 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <f>SUM(A3)</f>
+        <v>0</v>
+      </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
@@ -597,15 +746,20 @@
       <c r="A6" s="6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
@@ -613,7 +767,9 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
@@ -621,7 +777,9 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6"/>
     </row>

--- a/target/classes/excel/dir_template.xlsx
+++ b/target/classes/excel/dir_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550F694D-B08B-4AC8-85A1-4C5A43689F59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA62CBD2-DE1E-4E14-90E9-30B58574FC7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -334,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -351,11 +350,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -364,8 +372,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,7 +692,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +718,7 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -726,7 +735,7 @@
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <f>SUM(A3)</f>
         <v>0</v>
       </c>
@@ -756,7 +765,7 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>

--- a/target/classes/excel/dir_template.xlsx
+++ b/target/classes/excel/dir_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA62CBD2-DE1E-4E14-90E9-30B58574FC7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1075CE41-35E4-4670-A624-925DFB7A9D48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="D9")</t>
+jx:area(lastCell="D10")</t>
         </r>
       </text>
     </comment>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{47969E68-3818-4913-8E42-87F3066E70A0}">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{24722105-2C5A-4D85-BAE1-6E49E61A3984}">
       <text>
         <r>
           <rPr>
@@ -226,8 +226,32 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="s3" var="items" lastCell="D9" direction="RIGHT")
-jx:each(items="items" var="s3_table" direction="DOWN" lastCell="D9")</t>
+jx:each(items="s3_cols" var="s3_headers" direction="RIGHT" lastCell="D9")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{47969E68-3818-4913-8E42-87F3066E70A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SirAlwaid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="s3" var="items" lastCell="D10" direction="RIGHT")
+jx:each(items="items" var="s3_table" direction="DOWN" lastCell="D10")</t>
         </r>
       </text>
     </comment>
@@ -236,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -272,13 +296,22 @@
   </si>
   <si>
     <t>Totale:</t>
+  </si>
+  <si>
+    <t>${s3_headers.getTxt()}</t>
+  </si>
+  <si>
+    <t>Colonna 1</t>
+  </si>
+  <si>
+    <t>Colonna 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +351,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,12 +368,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -359,27 +405,192 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -390,6 +601,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79BCB54C-D1C7-4FC7-B2EF-44FEB529ED3B}" name="Table1" displayName="Table1" ref="A2:B3" headerRowDxfId="6" dataDxfId="0" totalsRowDxfId="5">
+  <autoFilter ref="A2:B3" xr:uid="{9F374050-8390-4E0E-873C-4F04CE2ED49C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B3">
+    <sortCondition ref="B2:B3"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4790D5AB-803C-40B3-A516-606F0A3009E3}" name="Colonna 1" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E5543366-5FA4-49D3-B500-A9C8289E0632}" name="Colonna 3" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="3">
+      <totalsRowFormula>SUBTOTAL(103,Table1[Colonna 1])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,136 +916,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B5" s="2">
         <f>SUM(A3)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/target/classes/excel/dir_template.xlsx
+++ b/target/classes/excel/dir_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1075CE41-35E4-4670-A624-925DFB7A9D48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC064F6-A872-4146-A485-C79F97613C89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="2025" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -520,7 +520,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -529,22 +529,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -566,9 +550,25 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -604,14 +604,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79BCB54C-D1C7-4FC7-B2EF-44FEB529ED3B}" name="Table1" displayName="Table1" ref="A2:B3" headerRowDxfId="6" dataDxfId="0" totalsRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79BCB54C-D1C7-4FC7-B2EF-44FEB529ED3B}" name="Table1" displayName="Table1" ref="A2:B3" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
   <autoFilter ref="A2:B3" xr:uid="{9F374050-8390-4E0E-873C-4F04CE2ED49C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B3">
     <sortCondition ref="B2:B3"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4790D5AB-803C-40B3-A516-606F0A3009E3}" name="Colonna 1" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E5543366-5FA4-49D3-B500-A9C8289E0632}" name="Colonna 3" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{4790D5AB-803C-40B3-A516-606F0A3009E3}" name="Colonna 1" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E5543366-5FA4-49D3-B500-A9C8289E0632}" name="Colonna 3" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>SUBTOTAL(103,Table1[Colonna 1])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -918,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/target/classes/excel/dir_template.xlsx
+++ b/target/classes/excel/dir_template.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8DA0443C-4637-4EB2-8167-F0A63914D949}">
